--- a/docs/boards/sprint_3.xlsx
+++ b/docs/boards/sprint_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farin\OneDrive\Desktop\Uni\LM_PrimoAnno_1\PPS\PPS-24-Scalata\docs\boards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E740AD1-0AE3-4212-A42B-05E677F750E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D03088A-FAC5-4F0B-A383-83CA34079DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1733,16 +1733,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>891007</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>768542</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>207330</xdr:rowOff>
+      <xdr:rowOff>2629402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3528525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1292677</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3406060</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>857249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1757,7 +1757,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5381364" y="3894866"/>
+          <a:off x="17995185" y="6316938"/>
           <a:ext cx="2637518" cy="1085347"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -1950,16 +1950,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>868491</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1354740</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>718813</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>456668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3758564</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2789464</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3608886</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1891392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1974,7 +1974,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5358848" y="5042276"/>
+          <a:off x="17945456" y="7001704"/>
           <a:ext cx="2890073" cy="1434724"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -2386,16 +2386,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>692767</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>747195</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>364708</xdr:rowOff>
+      <xdr:rowOff>1085887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3582840</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3637268</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1637217</xdr:rowOff>
+      <xdr:rowOff>2358396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2410,7 +2410,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9428553" y="4052244"/>
+          <a:off x="17973838" y="4773423"/>
           <a:ext cx="2890073" cy="1272509"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -2595,16 +2595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>877717</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>687217</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>199387</xdr:rowOff>
+      <xdr:rowOff>2063566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3767790</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1741715</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3577290</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>748394</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2619,7 +2619,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5368074" y="6744423"/>
+          <a:off x="17913860" y="8608602"/>
           <a:ext cx="2890073" cy="1542328"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -3435,15 +3435,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2948294</xdr:colOff>
+      <xdr:colOff>2989116</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>939152</xdr:rowOff>
+      <xdr:rowOff>1619510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3468994</xdr:colOff>
+      <xdr:colOff>3509816</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1487792</xdr:rowOff>
+      <xdr:rowOff>2168150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3458,7 +3458,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20174937" y="4626688"/>
+          <a:off x="20215759" y="5307046"/>
           <a:ext cx="520700" cy="548640"/>
         </a:xfrm>
         <a:custGeom>
@@ -3739,23 +3739,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2924339</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>949816</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2927062</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1143037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3445039</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1498456</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3447762</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1691677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Freeform 2">
+        <xdr:cNvPr id="5" name="Freeform 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B61160-1383-4933-BDB9-266300187D7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC48EC13-EADE-45BB-8FAF-F358F784DB55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3763,7 +3763,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11660125" y="4637352"/>
+          <a:off x="20153705" y="7688073"/>
           <a:ext cx="520700" cy="548640"/>
         </a:xfrm>
         <a:custGeom>
@@ -4044,321 +4044,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3076740</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2041109</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2861747</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3597440</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2589749</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Freeform 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC48EC13-EADE-45BB-8FAF-F358F784DB55}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7567097" y="5728645"/>
-          <a:ext cx="520700" cy="548640"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 298522 w 597046"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 630113"/>
-            <a:gd name="connsiteX1" fmla="*/ 469972 w 597046"/>
-            <a:gd name="connsiteY1" fmla="*/ 165945 h 630113"/>
-            <a:gd name="connsiteX2" fmla="*/ 419755 w 597046"/>
-            <a:gd name="connsiteY2" fmla="*/ 283286 h 630113"/>
-            <a:gd name="connsiteX3" fmla="*/ 408034 w 597046"/>
-            <a:gd name="connsiteY3" fmla="*/ 290935 h 630113"/>
-            <a:gd name="connsiteX4" fmla="*/ 435155 w 597046"/>
-            <a:gd name="connsiteY4" fmla="*/ 302783 h 630113"/>
-            <a:gd name="connsiteX5" fmla="*/ 597046 w 597046"/>
-            <a:gd name="connsiteY5" fmla="*/ 583914 h 630113"/>
-            <a:gd name="connsiteX6" fmla="*/ 0 w 597046"/>
-            <a:gd name="connsiteY6" fmla="*/ 578243 h 630113"/>
-            <a:gd name="connsiteX7" fmla="*/ 159438 w 597046"/>
-            <a:gd name="connsiteY7" fmla="*/ 309073 h 630113"/>
-            <a:gd name="connsiteX8" fmla="*/ 194733 w 597046"/>
-            <a:gd name="connsiteY8" fmla="*/ 294670 h 630113"/>
-            <a:gd name="connsiteX9" fmla="*/ 177289 w 597046"/>
-            <a:gd name="connsiteY9" fmla="*/ 283286 h 630113"/>
-            <a:gd name="connsiteX10" fmla="*/ 127072 w 597046"/>
-            <a:gd name="connsiteY10" fmla="*/ 165945 h 630113"/>
-            <a:gd name="connsiteX11" fmla="*/ 298522 w 597046"/>
-            <a:gd name="connsiteY11" fmla="*/ 0 h 630113"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX7" y="connsiteY7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX8" y="connsiteY8"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX9" y="connsiteY9"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX10" y="connsiteY10"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX11" y="connsiteY11"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="597046" h="630113">
-              <a:moveTo>
-                <a:pt x="298522" y="0"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="393211" y="0"/>
-                <a:pt x="469972" y="74296"/>
-                <a:pt x="469972" y="165945"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="469972" y="211769"/>
-                <a:pt x="450782" y="253256"/>
-                <a:pt x="419755" y="283286"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="408034" y="290935"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="435155" y="302783"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="525950" y="364596"/>
-                <a:pt x="526507" y="507747"/>
-                <a:pt x="597046" y="583914"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="398031" y="650070"/>
-                <a:pt x="146632" y="642511"/>
-                <a:pt x="0" y="578243"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="77087" y="502076"/>
-                <a:pt x="58410" y="371684"/>
-                <a:pt x="159438" y="309073"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="194733" y="294670"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="177289" y="283286"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="146262" y="253256"/>
-                <a:pt x="127072" y="211769"/>
-                <a:pt x="127072" y="165945"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="127072" y="74296"/>
-                <a:pt x="203833" y="0"/>
-                <a:pt x="298522" y="0"/>
-              </a:cubicBezTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d contourW="12700">
-          <a:bevelT w="38100" h="25400" prst="coolSlant"/>
-          <a:contourClr>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:contourClr>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="b"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
-              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>EF</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3052247</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>968866</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3572947</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1517506</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3382447</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>551399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4373,7 +4068,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7542604" y="7513902"/>
+          <a:off x="20088390" y="9405295"/>
           <a:ext cx="520700" cy="548640"/>
         </a:xfrm>
         <a:custGeom>
@@ -5856,8 +5551,8 @@
   </sheetPr>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5913,7 +5608,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="27">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>14</v>

--- a/docs/boards/sprint_3.xlsx
+++ b/docs/boards/sprint_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farin\OneDrive\Desktop\Uni\LM_PrimoAnno_1\PPS\PPS-24-Scalata\docs\boards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D03088A-FAC5-4F0B-A383-83CA34079DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123AAB73-B040-4C4D-87E7-9A738043D3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2805,16 +2805,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>889900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>699399</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>929036</xdr:rowOff>
+      <xdr:rowOff>2834036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3779973</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2027464</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3589472</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1074964</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2829,7 +2829,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5380257" y="10331572"/>
+          <a:off x="17926042" y="12236572"/>
           <a:ext cx="2890073" cy="1098428"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -3016,16 +3016,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>914627</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2259815</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>724126</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1307315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3804700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>938893</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3614199</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3040,7 +3040,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5404984" y="11662351"/>
+          <a:off x="17950769" y="13567351"/>
           <a:ext cx="2890073" cy="1536578"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -3225,16 +3225,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>891076</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1861126</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>700575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>908626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3781149</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3590648</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>819835</xdr:rowOff>
+      <xdr:rowOff>2724835</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3249,7 +3249,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5381433" y="8406162"/>
+          <a:off x="17927218" y="10311162"/>
           <a:ext cx="2890073" cy="1816209"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -4349,16 +4349,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3054969</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2864468</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>59909</xdr:rowOff>
+      <xdr:rowOff>1964909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3575669</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3385168</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>608549</xdr:rowOff>
+      <xdr:rowOff>2513549</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4373,7 +4373,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7545326" y="9462445"/>
+          <a:off x="20091111" y="11367445"/>
           <a:ext cx="520700" cy="548640"/>
         </a:xfrm>
         <a:custGeom>
@@ -4654,16 +4654,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3112119</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1300880</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2921618</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>348380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3632819</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1849520</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3442318</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>897020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4678,7 +4678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7602476" y="10703416"/>
+          <a:off x="20148261" y="12608416"/>
           <a:ext cx="520700" cy="548640"/>
         </a:xfrm>
         <a:custGeom>
@@ -4959,16 +4959,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3005983</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2815482</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>228637</xdr:rowOff>
+      <xdr:rowOff>2133637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3526683</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3336182</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>777277</xdr:rowOff>
+      <xdr:rowOff>2682277</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4983,7 +4983,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7496340" y="12488673"/>
+          <a:off x="20042125" y="14393673"/>
           <a:ext cx="520700" cy="548640"/>
         </a:xfrm>
         <a:custGeom>
@@ -5552,7 +5552,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5608,7 +5608,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="27">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>14</v>
